--- a/Mifos Automation Excels/Loan Product/4237-RBI-EI-DB-SAR-REC-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/4237-RBI-EI-DB-SAR-REC-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16465" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16466" uniqueCount="79">
   <si>
     <t>productname</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>allowPartialPeriodInterestCalcualtion</t>
+  </si>
+  <si>
+    <t>4237-RBI-EI-DB-SAR-REC-RNI-INT-FFConMONonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PE-1st</t>
+  </si>
+  <si>
+    <t>423o</t>
   </si>
 </sst>
 </file>
@@ -657,8 +663,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -672,15 +678,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>4237</v>
+      <c r="B2" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
